--- a/Supplementary_Table_S7_Unit_Cost_Parameters_in_Included_Studies_2023USD.xlsx
+++ b/Supplementary_Table_S7_Unit_Cost_Parameters_in_Included_Studies_2023USD.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\2025\TB\Manuscripts\Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCD3F3C-6F54-48AD-A243-795876F8B877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF552F45-265C-46D5-B472-1B02DD7CC2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{736FAEE4-C1AE-485A-9314-78685299701E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{736FAEE4-C1AE-485A-9314-78685299701E}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cost!$E$218:$F$242</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="852">
   <si>
     <t>No.</t>
   </si>
@@ -2680,19 +2681,267 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Table S7. Unit Cost Parameters Reported in Studies Included in the Systematic Review (in 2023 USDs)</t>
+    <t>Table S7-1. Unit Cost Parameters Reported in Studies Included in the Systematic Review (in 2023 USDs)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table S7-2. Summary of Key Unit Costs for TB Screening Tests and Treatment Regimens (in 2023 USDs)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Author, year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost (reported in study)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost (USD)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TST screening cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al Abri, 2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barker, 2023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Campbell, 2019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russo, 2023</t>
+  </si>
+  <si>
+    <t>Haukaas, 2017</t>
+  </si>
+  <si>
+    <t>Usemann, 2019</t>
+  </si>
+  <si>
+    <t>Campbell, 2019</t>
+  </si>
+  <si>
+    <t>Maskery, 2018</t>
+  </si>
+  <si>
+    <t>Dale, 2022</t>
+  </si>
+  <si>
+    <t>Campbell, 2017</t>
+  </si>
+  <si>
+    <t>Linas, 2011</t>
+  </si>
+  <si>
+    <t>Abubakar, 2018</t>
+  </si>
+  <si>
+    <t>Tan, 2008</t>
+  </si>
+  <si>
+    <t>Oxlade, 2007</t>
+  </si>
+  <si>
+    <t>Porco, 2006</t>
+  </si>
+  <si>
+    <t>Wingate, 2015</t>
+  </si>
+  <si>
+    <t>3.5-5.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overseas screening</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TST in U.S.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bozorgmehr, 2017</t>
+  </si>
+  <si>
+    <t>Schwartzman, 2000</t>
+  </si>
+  <si>
+    <t>7.1–17.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kowada, 2014</t>
+  </si>
+  <si>
+    <t>7.7-30.8</t>
+  </si>
+  <si>
+    <t>Tasillo, 2017</t>
+  </si>
+  <si>
+    <t>Pareek, 2013</t>
+  </si>
+  <si>
+    <t>Khan, 2002</t>
+  </si>
+  <si>
+    <t>13.9–17.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hardy, 2010</t>
+  </si>
+  <si>
+    <t>Iqbal, 2014</t>
+  </si>
+  <si>
+    <t>Average cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Median cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGRA/QFT screening cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al Abri, 2020</t>
+  </si>
+  <si>
+    <t>Barker, 2023</t>
+  </si>
+  <si>
+    <t>Shedrawy, 2021</t>
+  </si>
+  <si>
+    <t>Marx, 2021</t>
+  </si>
+  <si>
+    <t>CXR screening cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sayed, 2020</t>
+  </si>
+  <si>
+    <t>Park, 2023</t>
+  </si>
+  <si>
+    <t>Pareek, 2011</t>
+  </si>
+  <si>
+    <t>Schwartzman, 2005</t>
+  </si>
+  <si>
+    <t>Mor, 2012</t>
+  </si>
+  <si>
+    <t>Sputum smear cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Culture test cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sputum  smear and culture cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molecular diagnostics cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeneXpert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goscé, 2021</t>
+  </si>
+  <si>
+    <t>Average cost</t>
+  </si>
+  <si>
+    <t>Median cost</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>4R treatment cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medication only</t>
+  </si>
+  <si>
+    <t>med + appointments</t>
+  </si>
+  <si>
+    <t>6H  treatment cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3HP  treatment cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ilaiwy, 2021</t>
+  </si>
+  <si>
+    <t>7.86-23.58</t>
+  </si>
+  <si>
+    <t>9H  treatment cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7-8.10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -2820,7 +3069,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2954,11 +3203,40 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3277,8 +3555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371975CA-390B-4CB0-9CFF-F6F70A879508}">
   <dimension ref="A1:AP732"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A651" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -3324,13 +3602,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>779</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -31032,26 +31310,13 @@
       <c r="D652" s="26" t="s">
         <v>575</v>
       </c>
-      <c r="E652" s="16">
-        <v>24</v>
-      </c>
+      <c r="E652" s="16"/>
       <c r="F652" s="16"/>
-      <c r="G652" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H652" s="16">
-        <v>2007</v>
-      </c>
-      <c r="I652" s="27">
-        <v>1.42</v>
-      </c>
-      <c r="J652" s="18">
-        <f>E652*I652</f>
-        <v>34.08</v>
-      </c>
-      <c r="K652" s="35">
-        <v>2023</v>
-      </c>
+      <c r="G652" s="16"/>
+      <c r="H652" s="16"/>
+      <c r="I652" s="49"/>
+      <c r="J652" s="49"/>
+      <c r="K652" s="49"/>
       <c r="L652" s="4"/>
       <c r="M652" s="4"/>
       <c r="N652" s="4"/>
@@ -31091,7 +31356,7 @@
         <v>725</v>
       </c>
       <c r="E653" s="16">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F653" s="16"/>
       <c r="G653" s="16" t="s">
@@ -31104,8 +31369,8 @@
         <v>1.42</v>
       </c>
       <c r="J653" s="18">
-        <f t="shared" ref="J653:J693" si="39">E653*I653</f>
-        <v>8.52</v>
+        <f t="shared" ref="J653:J672" si="39">E653*I653</f>
+        <v>34.08</v>
       </c>
       <c r="K653" s="35">
         <v>2023</v>
@@ -31150,7 +31415,7 @@
         <v>726</v>
       </c>
       <c r="E654" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F654" s="16"/>
       <c r="G654" s="16" t="s">
@@ -31164,7 +31429,7 @@
       </c>
       <c r="J654" s="18">
         <f t="shared" si="39"/>
-        <v>11.36</v>
+        <v>8.52</v>
       </c>
       <c r="K654" s="35">
         <v>2023</v>
@@ -31209,7 +31474,7 @@
         <v>727</v>
       </c>
       <c r="E655" s="16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F655" s="16"/>
       <c r="G655" s="16" t="s">
@@ -31223,7 +31488,7 @@
       </c>
       <c r="J655" s="18">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>11.36</v>
       </c>
       <c r="K655" s="35">
         <v>2023</v>
@@ -31268,7 +31533,7 @@
         <v>728</v>
       </c>
       <c r="E656" s="16">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F656" s="16"/>
       <c r="G656" s="16" t="s">
@@ -31282,7 +31547,7 @@
       </c>
       <c r="J656" s="18">
         <f t="shared" si="39"/>
-        <v>53.959999999999994</v>
+        <v>0</v>
       </c>
       <c r="K656" s="35">
         <v>2023</v>
@@ -31327,7 +31592,7 @@
         <v>729</v>
       </c>
       <c r="E657" s="16">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F657" s="16"/>
       <c r="G657" s="16" t="s">
@@ -31341,7 +31606,7 @@
       </c>
       <c r="J657" s="18">
         <f t="shared" si="39"/>
-        <v>95.14</v>
+        <v>53.959999999999994</v>
       </c>
       <c r="K657" s="35">
         <v>2023</v>
@@ -31386,7 +31651,7 @@
         <v>730</v>
       </c>
       <c r="E658" s="16">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F658" s="16"/>
       <c r="G658" s="16" t="s">
@@ -31400,7 +31665,7 @@
       </c>
       <c r="J658" s="18">
         <f t="shared" si="39"/>
-        <v>15.62</v>
+        <v>95.14</v>
       </c>
       <c r="K658" s="35">
         <v>2023</v>
@@ -31444,7 +31709,7 @@
         <v>731</v>
       </c>
       <c r="E659" s="16">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F659" s="16"/>
       <c r="G659" s="16" t="s">
@@ -31458,7 +31723,7 @@
       </c>
       <c r="J659" s="18">
         <f t="shared" si="39"/>
-        <v>5.68</v>
+        <v>15.62</v>
       </c>
       <c r="K659" s="35">
         <v>2023</v>
@@ -31502,7 +31767,7 @@
         <v>732</v>
       </c>
       <c r="E660" s="16">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="F660" s="16"/>
       <c r="G660" s="16" t="s">
@@ -31516,7 +31781,7 @@
       </c>
       <c r="J660" s="18">
         <f t="shared" si="39"/>
-        <v>116.44</v>
+        <v>5.68</v>
       </c>
       <c r="K660" s="35">
         <v>2023</v>
@@ -31560,7 +31825,7 @@
         <v>733</v>
       </c>
       <c r="E661" s="16">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="F661" s="16"/>
       <c r="G661" s="16" t="s">
@@ -31574,7 +31839,7 @@
       </c>
       <c r="J661" s="18">
         <f t="shared" si="39"/>
-        <v>485.64</v>
+        <v>116.44</v>
       </c>
       <c r="K661" s="35">
         <v>2023</v>
@@ -31618,7 +31883,7 @@
         <v>734</v>
       </c>
       <c r="E662" s="16">
-        <v>9</v>
+        <v>342</v>
       </c>
       <c r="F662" s="16"/>
       <c r="G662" s="16" t="s">
@@ -31632,7 +31897,7 @@
       </c>
       <c r="J662" s="18">
         <f t="shared" si="39"/>
-        <v>12.78</v>
+        <v>485.64</v>
       </c>
       <c r="K662" s="35">
         <v>2023</v>
@@ -31676,7 +31941,7 @@
         <v>735</v>
       </c>
       <c r="E663" s="16">
-        <v>351</v>
+        <v>9</v>
       </c>
       <c r="F663" s="16"/>
       <c r="G663" s="16" t="s">
@@ -31690,7 +31955,7 @@
       </c>
       <c r="J663" s="18">
         <f t="shared" si="39"/>
-        <v>498.41999999999996</v>
+        <v>12.78</v>
       </c>
       <c r="K663" s="35">
         <v>2023</v>
@@ -31734,7 +31999,7 @@
         <v>736</v>
       </c>
       <c r="E664" s="16">
-        <v>36</v>
+        <v>351</v>
       </c>
       <c r="F664" s="16"/>
       <c r="G664" s="16" t="s">
@@ -31748,7 +32013,7 @@
       </c>
       <c r="J664" s="18">
         <f t="shared" si="39"/>
-        <v>51.12</v>
+        <v>498.41999999999996</v>
       </c>
       <c r="K664" s="35">
         <v>2023</v>
@@ -31792,7 +32057,7 @@
         <v>737</v>
       </c>
       <c r="E665" s="16">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F665" s="16"/>
       <c r="G665" s="16" t="s">
@@ -31806,7 +32071,7 @@
       </c>
       <c r="J665" s="18">
         <f t="shared" si="39"/>
-        <v>38.339999999999996</v>
+        <v>51.12</v>
       </c>
       <c r="K665" s="35">
         <v>2023</v>
@@ -31850,7 +32115,7 @@
         <v>738</v>
       </c>
       <c r="E666" s="16">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F666" s="16"/>
       <c r="G666" s="16" t="s">
@@ -31864,7 +32129,7 @@
       </c>
       <c r="J666" s="18">
         <f t="shared" si="39"/>
-        <v>89.46</v>
+        <v>38.339999999999996</v>
       </c>
       <c r="K666" s="35">
         <v>2023</v>
@@ -31908,7 +32173,7 @@
         <v>739</v>
       </c>
       <c r="E667" s="16">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F667" s="16"/>
       <c r="G667" s="16" t="s">
@@ -31922,7 +32187,7 @@
       </c>
       <c r="J667" s="18">
         <f t="shared" si="39"/>
-        <v>25.56</v>
+        <v>89.46</v>
       </c>
       <c r="K667" s="35">
         <v>2023</v>
@@ -31966,7 +32231,7 @@
         <v>740</v>
       </c>
       <c r="E668" s="16">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F668" s="16"/>
       <c r="G668" s="16" t="s">
@@ -31980,7 +32245,7 @@
       </c>
       <c r="J668" s="18">
         <f t="shared" si="39"/>
-        <v>51.12</v>
+        <v>25.56</v>
       </c>
       <c r="K668" s="35">
         <v>2023</v>
@@ -32024,7 +32289,7 @@
         <v>727</v>
       </c>
       <c r="E669" s="16">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F669" s="16"/>
       <c r="G669" s="16" t="s">
@@ -32038,7 +32303,7 @@
       </c>
       <c r="J669" s="18">
         <f t="shared" si="39"/>
-        <v>38.339999999999996</v>
+        <v>51.12</v>
       </c>
       <c r="K669" s="35">
         <v>2023</v>
@@ -32082,7 +32347,7 @@
         <v>741</v>
       </c>
       <c r="E670" s="16">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="F670" s="16"/>
       <c r="G670" s="16" t="s">
@@ -32096,7 +32361,7 @@
       </c>
       <c r="J670" s="18">
         <f t="shared" si="39"/>
-        <v>115.02</v>
+        <v>38.339999999999996</v>
       </c>
       <c r="K670" s="35">
         <v>2023</v>
@@ -32140,7 +32405,7 @@
         <v>742</v>
       </c>
       <c r="E671" s="16">
-        <v>615</v>
+        <v>81</v>
       </c>
       <c r="F671" s="16"/>
       <c r="G671" s="16" t="s">
@@ -32154,7 +32419,7 @@
       </c>
       <c r="J671" s="18">
         <f t="shared" si="39"/>
-        <v>873.3</v>
+        <v>115.02</v>
       </c>
       <c r="K671" s="35">
         <v>2023</v>
@@ -32197,13 +32462,26 @@
       <c r="D672" s="28" t="s">
         <v>743</v>
       </c>
-      <c r="E672" s="16"/>
+      <c r="E672" s="16">
+        <v>615</v>
+      </c>
       <c r="F672" s="16"/>
-      <c r="G672" s="16"/>
-      <c r="H672" s="16"/>
-      <c r="I672" s="27"/>
-      <c r="J672" s="18"/>
-      <c r="K672" s="4"/>
+      <c r="G672" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H672" s="16">
+        <v>2007</v>
+      </c>
+      <c r="I672" s="27">
+        <v>1.42</v>
+      </c>
+      <c r="J672" s="18">
+        <f t="shared" si="39"/>
+        <v>873.3</v>
+      </c>
+      <c r="K672" s="35">
+        <v>2023</v>
+      </c>
       <c r="L672" s="4"/>
       <c r="M672" s="4"/>
       <c r="N672" s="4"/>
@@ -32248,7 +32526,7 @@
       <c r="H673" s="16"/>
       <c r="I673" s="27"/>
       <c r="J673" s="18"/>
-      <c r="K673" s="4"/>
+      <c r="K673" s="35"/>
       <c r="L673" s="4"/>
       <c r="M673" s="4"/>
       <c r="N673" s="4"/>
@@ -32301,7 +32579,7 @@
         <v>1.42</v>
       </c>
       <c r="J674" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="J674:J693" si="40">E674*I674</f>
         <v>90.88</v>
       </c>
       <c r="K674" s="35">
@@ -32359,7 +32637,7 @@
         <v>1.42</v>
       </c>
       <c r="J675" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.26</v>
       </c>
       <c r="K675" s="35">
@@ -32417,7 +32695,7 @@
         <v>1.42</v>
       </c>
       <c r="J676" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>5.68</v>
       </c>
       <c r="K676" s="35">
@@ -32475,7 +32753,7 @@
         <v>1.42</v>
       </c>
       <c r="J677" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.26</v>
       </c>
       <c r="K677" s="35">
@@ -32533,7 +32811,7 @@
         <v>1.42</v>
       </c>
       <c r="J678" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>105.08</v>
       </c>
       <c r="K678" s="35">
@@ -32591,7 +32869,7 @@
         <v>1.42</v>
       </c>
       <c r="J679" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>95.14</v>
       </c>
       <c r="K679" s="35">
@@ -32650,7 +32928,7 @@
         <v>1.42</v>
       </c>
       <c r="J680" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>15.62</v>
       </c>
       <c r="K680" s="35">
@@ -32709,7 +32987,7 @@
         <v>1.42</v>
       </c>
       <c r="J681" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>5.68</v>
       </c>
       <c r="K681" s="35">
@@ -32768,7 +33046,7 @@
         <v>1.42</v>
       </c>
       <c r="J682" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>116.44</v>
       </c>
       <c r="K682" s="35">
@@ -32827,7 +33105,7 @@
         <v>1.42</v>
       </c>
       <c r="J683" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>485.64</v>
       </c>
       <c r="K683" s="35">
@@ -32886,7 +33164,7 @@
         <v>1.42</v>
       </c>
       <c r="J684" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>11.36</v>
       </c>
       <c r="K684" s="35">
@@ -32944,7 +33222,7 @@
         <v>1.42</v>
       </c>
       <c r="J685" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>498.41999999999996</v>
       </c>
       <c r="K685" s="35">
@@ -33002,7 +33280,7 @@
         <v>1.42</v>
       </c>
       <c r="J686" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>51.12</v>
       </c>
       <c r="K686" s="35">
@@ -33060,7 +33338,7 @@
         <v>1.42</v>
       </c>
       <c r="J687" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>38.339999999999996</v>
       </c>
       <c r="K687" s="35">
@@ -33118,7 +33396,7 @@
         <v>1.42</v>
       </c>
       <c r="J688" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>89.46</v>
       </c>
       <c r="K688" s="35">
@@ -33176,7 +33454,7 @@
         <v>1.42</v>
       </c>
       <c r="J689" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>25.56</v>
       </c>
       <c r="K689" s="35">
@@ -33234,7 +33512,7 @@
         <v>1.42</v>
       </c>
       <c r="J690" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>51.12</v>
       </c>
       <c r="K690" s="35">
@@ -33292,7 +33570,7 @@
         <v>1.42</v>
       </c>
       <c r="J691" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>38.339999999999996</v>
       </c>
       <c r="K691" s="35">
@@ -33350,7 +33628,7 @@
         <v>1.42</v>
       </c>
       <c r="J692" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>115.02</v>
       </c>
       <c r="K692" s="35">
@@ -33408,7 +33686,7 @@
         <v>1.42</v>
       </c>
       <c r="J693" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>924.42</v>
       </c>
       <c r="K693" s="35">
@@ -33531,7 +33809,7 @@
         <v>1.6</v>
       </c>
       <c r="J696" s="18">
-        <f t="shared" ref="J696:J704" si="40">E696*I696</f>
+        <f t="shared" ref="J696:J704" si="41">E696*I696</f>
         <v>230.97600000000003</v>
       </c>
       <c r="K696" s="35">
@@ -33589,7 +33867,7 @@
         <v>1.6</v>
       </c>
       <c r="J697" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>26.416000000000004</v>
       </c>
       <c r="K697" s="35">
@@ -33647,7 +33925,7 @@
         <v>1.6</v>
       </c>
       <c r="J698" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>160.70400000000001</v>
       </c>
       <c r="K698" s="35">
@@ -33705,7 +33983,7 @@
         <v>1.6</v>
       </c>
       <c r="J699" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>450.70400000000001</v>
       </c>
       <c r="K699" s="35">
@@ -33763,7 +34041,7 @@
         <v>1.6</v>
       </c>
       <c r="J700" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>14811.2</v>
       </c>
       <c r="K700" s="35">
@@ -33821,7 +34099,7 @@
         <v>1.6</v>
       </c>
       <c r="J701" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>57672</v>
       </c>
       <c r="K701" s="35">
@@ -33879,7 +34157,7 @@
         <v>1.6</v>
       </c>
       <c r="J702" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3619.2000000000003</v>
       </c>
       <c r="K702" s="35">
@@ -33937,7 +34215,7 @@
         <v>1.6</v>
       </c>
       <c r="J703" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>55840000</v>
       </c>
       <c r="K703" s="35">
@@ -33995,7 +34273,7 @@
         <v>1.6</v>
       </c>
       <c r="J704" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4480000</v>
       </c>
       <c r="K704" s="35">
@@ -34157,7 +34435,7 @@
         <v>1.37</v>
       </c>
       <c r="J707" s="18">
-        <f t="shared" ref="J707:J709" si="41">E707*I707</f>
+        <f t="shared" ref="J707:J709" si="42">E707*I707</f>
         <v>77.665300000000002</v>
       </c>
       <c r="K707" s="35">
@@ -34215,7 +34493,7 @@
         <v>1.37</v>
       </c>
       <c r="J708" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>17.125</v>
       </c>
       <c r="K708" s="35">
@@ -34273,7 +34551,7 @@
         <v>1.37</v>
       </c>
       <c r="J709" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>92.351700000000008</v>
       </c>
       <c r="K709" s="35">
@@ -34597,7 +34875,7 @@
         <v>0.97</v>
       </c>
       <c r="J715" s="18">
-        <f t="shared" ref="J715:J727" si="42">E715*I715</f>
+        <f t="shared" ref="J715:J727" si="43">E715*I715</f>
         <v>25731.19</v>
       </c>
       <c r="K715" s="35">
@@ -34655,7 +34933,7 @@
         <v>0.97</v>
       </c>
       <c r="J716" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>782.79</v>
       </c>
       <c r="K716" s="35">
@@ -34713,7 +34991,7 @@
         <v>0.97</v>
       </c>
       <c r="J717" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1904.11</v>
       </c>
       <c r="K717" s="35">
@@ -34771,7 +35049,7 @@
         <v>0.97</v>
       </c>
       <c r="J718" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>139.68</v>
       </c>
       <c r="K718" s="35">
@@ -34829,7 +35107,7 @@
         <v>0.97</v>
       </c>
       <c r="J719" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>291</v>
       </c>
       <c r="K719" s="35">
@@ -34887,7 +35165,7 @@
         <v>0.97</v>
       </c>
       <c r="J720" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>333.68</v>
       </c>
       <c r="K720" s="35">
@@ -34945,7 +35223,7 @@
         <v>0.97</v>
       </c>
       <c r="J721" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2604.4499999999998</v>
       </c>
       <c r="K721" s="35">
@@ -35003,7 +35281,7 @@
         <v>0.97</v>
       </c>
       <c r="J722" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>264.81</v>
       </c>
       <c r="K722" s="35">
@@ -35061,7 +35339,7 @@
         <v>0.97</v>
       </c>
       <c r="J723" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2867.3199999999997</v>
       </c>
       <c r="K723" s="35">
@@ -35119,7 +35397,7 @@
         <v>0.97</v>
       </c>
       <c r="J724" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>415.15999999999997</v>
       </c>
       <c r="K724" s="35">
@@ -35177,7 +35455,7 @@
         <v>0.97</v>
       </c>
       <c r="J725" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>174.6</v>
       </c>
       <c r="K725" s="35">
@@ -35235,7 +35513,7 @@
         <v>0.97</v>
       </c>
       <c r="J726" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>174.6</v>
       </c>
       <c r="K726" s="35">
@@ -35293,7 +35571,7 @@
         <v>0.97</v>
       </c>
       <c r="J727" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>36455.51</v>
       </c>
       <c r="K727" s="35">
@@ -35563,4 +35841,1708 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9538B8-E27B-4859-B2D6-7B1F12DBC881}">
+  <dimension ref="A1:E159"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.53125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.06640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="58" t="s">
+        <v>780</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="59" t="s">
+        <v>781</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>782</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>783</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="58" t="s">
+        <v>785</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="B6" s="56">
+        <v>23.5</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="57">
+        <v>27.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="B7" s="56">
+        <v>2.4</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="57">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="B8" s="56">
+        <v>11</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="57">
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="B9" s="56">
+        <v>5.8</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="57">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="B10" s="56">
+        <v>22</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="57">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="B11" s="56">
+        <v>200</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="57">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="B12" s="56">
+        <v>11</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="57">
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="B13" s="56">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="57">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B14" s="56">
+        <v>116.07</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="57">
+        <v>94.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B15" s="56">
+        <v>11</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="57">
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="B16" s="56">
+        <v>2.37</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="57">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="B17" s="56">
+        <v>1.22</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="57">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="B18" s="56">
+        <v>15.42</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="57">
+        <v>20.350000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B19" s="56">
+        <v>11.78</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="57">
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B20" s="56">
+        <v>11.78</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="57">
+        <v>18.260000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B21" s="56">
+        <v>4.5</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="D21" s="57">
+        <v>5.94</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B22" s="56">
+        <v>24</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="57">
+        <v>31.68</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B23" s="56">
+        <v>0.9</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="57">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B24" s="56">
+        <v>5.3</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="57">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="B25" s="56">
+        <v>7.07</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>807</v>
+      </c>
+      <c r="D25" s="57">
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="B26" s="56">
+        <v>15.4</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>809</v>
+      </c>
+      <c r="D26" s="57">
+        <v>20.329999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="B27" s="56">
+        <v>7.87</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>596</v>
+      </c>
+      <c r="D27" s="57">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B28" s="56">
+        <v>34.22</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="57">
+        <v>67.760000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="B29" s="56">
+        <v>15.43</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="D29" s="57">
+        <v>26.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="B30" s="56">
+        <v>13.69</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="57">
+        <v>28.89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="B31" s="56">
+        <v>6</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="57">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="52" t="s">
+        <v>816</v>
+      </c>
+      <c r="D32" s="53">
+        <f>AVERAGE(D6:D31)</f>
+        <v>26.87423076923077</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="52" t="s">
+        <v>817</v>
+      </c>
+      <c r="D33" s="53">
+        <f>MEDIAN(D6:D31)</f>
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="52" t="s">
+        <v>818</v>
+      </c>
+      <c r="D34" s="53"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="54" t="s">
+        <v>819</v>
+      </c>
+      <c r="D35" s="53">
+        <f>MIN(D6:D31)</f>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="54" t="s">
+        <v>820</v>
+      </c>
+      <c r="D36" s="53">
+        <f>MAX(D6:D31)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="52" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B39" s="60">
+        <v>20.5</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="61">
+        <v>23.78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B40" s="60">
+        <v>20.39</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="61">
+        <v>20.39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="B41" s="60">
+        <v>54</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="61">
+        <v>55.62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B42" s="60">
+        <v>573</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="61">
+        <v>80.22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="B43" s="60">
+        <v>52.25</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="61">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="B44" s="60">
+        <v>49</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="61">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="B45" s="60">
+        <v>54</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="61">
+        <v>55.62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B46" s="60">
+        <v>113.48</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="61">
+        <v>91.92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B47" s="60">
+        <v>54</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="61">
+        <v>55.62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B48" s="60">
+        <v>58.8</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="61">
+        <v>94.08</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B49" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="61">
+        <v>84</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="B50" s="60">
+        <v>51.77</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="D50" s="61">
+        <v>69.37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="B51" s="60">
+        <v>112</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="61">
+        <v>194.88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="B52" s="60">
+        <v>47.03</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="D52" s="61">
+        <v>68.66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="B53" s="60">
+        <v>84.35</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="D53" s="61">
+        <v>106.28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="B54" s="60">
+        <v>25.67</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="61">
+        <v>54.16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="B55" s="60">
+        <v>64</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="61">
+        <v>90.88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="52" t="s">
+        <v>816</v>
+      </c>
+      <c r="D56" s="55">
+        <f>AVERAGE(D39:D55)</f>
+        <v>72.235882352941189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="52" t="s">
+        <v>817</v>
+      </c>
+      <c r="D57" s="55">
+        <f>MEDIAN(D39:D55)</f>
+        <v>69.37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="52" t="s">
+        <v>818</v>
+      </c>
+      <c r="D58" s="53"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="54" t="s">
+        <v>819</v>
+      </c>
+      <c r="D59" s="53">
+        <f>MIN(D39:D55)</f>
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="54" t="s">
+        <v>820</v>
+      </c>
+      <c r="D60" s="53">
+        <f>MAX(D39:D55)</f>
+        <v>194.88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="52" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B63" s="60">
+        <v>26</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="61">
+        <v>30.16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B64" s="60">
+        <v>14.39</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="61">
+        <v>14.39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="B65" s="60">
+        <v>35</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="61">
+        <v>36.049999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B66" s="60">
+        <v>1008</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="61">
+        <v>141.12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="B67" s="60">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="61">
+        <v>24.71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="B68" s="60">
+        <v>65</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="61">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B69" s="60">
+        <v>35.82</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="61">
+        <v>46.57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B70" s="60">
+        <v>35</v>
+      </c>
+      <c r="C70" s="16"/>
+      <c r="D70" s="61">
+        <v>36.049999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B71" s="60">
+        <v>15.9</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="61">
+        <v>25.44</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B72" s="60">
+        <v>16.3</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="61">
+        <v>26.08</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="B73" s="60">
+        <v>5.8259999999999996</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="D73" s="61">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="B74" s="60">
+        <v>31.21</v>
+      </c>
+      <c r="C74" s="16"/>
+      <c r="D74" s="61">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B75" s="60">
+        <v>39.68</v>
+      </c>
+      <c r="C75" s="16"/>
+      <c r="D75" s="61">
+        <v>50.39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B76" s="60">
+        <v>39.68</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" s="61">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="B77" s="60">
+        <v>18.75</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="D77" s="61">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="B78" s="60">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="D78" s="61">
+        <v>47.92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B79" s="60">
+        <v>28</v>
+      </c>
+      <c r="C79" s="16"/>
+      <c r="D79" s="61">
+        <v>55.44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="B80" s="60">
+        <v>28</v>
+      </c>
+      <c r="C80" s="16"/>
+      <c r="D80" s="61">
+        <v>55.44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="B81" s="60">
+        <v>23.24</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="61">
+        <v>49.04</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="B82" s="60">
+        <v>67</v>
+      </c>
+      <c r="C82" s="16"/>
+      <c r="D82" s="61">
+        <v>95.14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B83" s="60">
+        <v>16.73</v>
+      </c>
+      <c r="C83" s="16"/>
+      <c r="D83" s="61">
+        <v>26.77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B84" s="60">
+        <v>20</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" s="61">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="52" t="s">
+        <v>816</v>
+      </c>
+      <c r="D85" s="55">
+        <f>AVERAGE(D63:D84)</f>
+        <v>42.676363636363639</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" s="52" t="s">
+        <v>817</v>
+      </c>
+      <c r="D86" s="55">
+        <f>MEDIAN(D63:D84)</f>
+        <v>36.049999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" s="52" t="s">
+        <v>818</v>
+      </c>
+      <c r="D87" s="55"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" s="54" t="s">
+        <v>819</v>
+      </c>
+      <c r="D88" s="55">
+        <f>MIN(D63:D84)</f>
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" s="54" t="s">
+        <v>820</v>
+      </c>
+      <c r="D89" s="55">
+        <f>MAX(D63:D84)</f>
+        <v>141.12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" s="52" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B92" s="60">
+        <v>1.3</v>
+      </c>
+      <c r="C92" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="61">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B93" s="60">
+        <v>0.32</v>
+      </c>
+      <c r="C93" s="49"/>
+      <c r="D93" s="61">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="B94" s="60">
+        <v>1.82</v>
+      </c>
+      <c r="C94" s="49"/>
+      <c r="D94" s="61">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B95" s="60">
+        <v>9.99</v>
+      </c>
+      <c r="C95" s="49"/>
+      <c r="D95" s="61">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B96" s="60">
+        <v>7.5</v>
+      </c>
+      <c r="C96" s="49"/>
+      <c r="D96" s="61">
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B97" s="60">
+        <v>7.5</v>
+      </c>
+      <c r="C97" s="49"/>
+      <c r="D97" s="61">
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" s="52" t="s">
+        <v>816</v>
+      </c>
+      <c r="D98" s="55">
+        <f>AVERAGE(D92:D97)</f>
+        <v>6.3916666666666666</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" s="52" t="s">
+        <v>817</v>
+      </c>
+      <c r="D99" s="55">
+        <f>MEDIAN(D92:D97)</f>
+        <v>5.9499999999999993</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" s="52" t="s">
+        <v>818</v>
+      </c>
+      <c r="D100" s="55"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="54" t="s">
+        <v>819</v>
+      </c>
+      <c r="D101" s="55">
+        <f>MIN(D92:D97)</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="54" t="s">
+        <v>820</v>
+      </c>
+      <c r="D102" s="55">
+        <f>MAX(D92:D97)</f>
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" s="52" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B105" s="60">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C105" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" s="61">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B106" s="60">
+        <v>6.7</v>
+      </c>
+      <c r="C106" s="49"/>
+      <c r="D106" s="61">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="B107" s="60">
+        <v>10.91</v>
+      </c>
+      <c r="C107" s="49"/>
+      <c r="D107" s="61">
+        <v>14.19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B108" s="60">
+        <v>20.07</v>
+      </c>
+      <c r="C108" s="49"/>
+      <c r="D108" s="61">
+        <v>26.09</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="B109" s="60">
+        <v>21.39</v>
+      </c>
+      <c r="C109" s="49"/>
+      <c r="D109" s="61">
+        <v>28.66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" s="52" t="s">
+        <v>816</v>
+      </c>
+      <c r="D110" s="55">
+        <f>AVERAGE(D105:D109)</f>
+        <v>17.145999999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" s="52" t="s">
+        <v>817</v>
+      </c>
+      <c r="D111" s="55">
+        <f>MEDIAN(D105:D109)</f>
+        <v>14.19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" s="52" t="s">
+        <v>818</v>
+      </c>
+      <c r="D112" s="55"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113" s="54" t="s">
+        <v>819</v>
+      </c>
+      <c r="D113" s="55">
+        <f>MIN(D105:D109)</f>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114" s="54" t="s">
+        <v>820</v>
+      </c>
+      <c r="D114" s="55">
+        <f>MAX(D105:D109)</f>
+        <v>28.66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116" s="52" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="B117" s="60">
+        <v>24.62</v>
+      </c>
+      <c r="C117" s="49" t="s">
+        <v>349</v>
+      </c>
+      <c r="D117" s="61">
+        <v>27.33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B118" s="60">
+        <v>14.42</v>
+      </c>
+      <c r="C118" s="49"/>
+      <c r="D118" s="61">
+        <v>18.309999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B119" s="60">
+        <v>14.42</v>
+      </c>
+      <c r="C119" s="49"/>
+      <c r="D119" s="61">
+        <v>22.35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A120" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="B120" s="60">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="C120" s="49" t="s">
+        <v>579</v>
+      </c>
+      <c r="D120" s="61">
+        <v>92.27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B121" s="60">
+        <v>10</v>
+      </c>
+      <c r="C121" s="49"/>
+      <c r="D121" s="61">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="B122" s="60">
+        <v>10</v>
+      </c>
+      <c r="C122" s="49"/>
+      <c r="D122" s="61">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A123" s="52" t="s">
+        <v>816</v>
+      </c>
+      <c r="D123" s="55">
+        <f>AVERAGE(D117:D122)</f>
+        <v>33.31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A124" s="52" t="s">
+        <v>817</v>
+      </c>
+      <c r="D124" s="55">
+        <f>MEDIAN(D117:D122)</f>
+        <v>21.075000000000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125" s="52" t="s">
+        <v>818</v>
+      </c>
+      <c r="D125" s="55"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126" s="54" t="s">
+        <v>819</v>
+      </c>
+      <c r="C126" s="55"/>
+      <c r="D126" s="55">
+        <f>MIN(D117:D122)</f>
+        <v>18.309999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127" s="54" t="s">
+        <v>820</v>
+      </c>
+      <c r="D127" s="55">
+        <f>MAX(D117:D122)</f>
+        <v>92.27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A129" s="52" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A130" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B130" s="60">
+        <v>59.8</v>
+      </c>
+      <c r="C130" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" s="61">
+        <v>69.37</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A131" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B131" s="60">
+        <v>9.98</v>
+      </c>
+      <c r="C131" s="49"/>
+      <c r="D131" s="61">
+        <v>9.98</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A132" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="B132" s="60">
+        <v>58.91</v>
+      </c>
+      <c r="C132" s="49"/>
+      <c r="D132" s="61">
+        <v>91.9</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A133" s="52" t="s">
+        <v>838</v>
+      </c>
+      <c r="D133" s="55">
+        <f>AVERAGE(D130:D132)</f>
+        <v>57.083333333333336</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A134" s="52" t="s">
+        <v>839</v>
+      </c>
+      <c r="D134" s="55">
+        <f>MEDIAN(D130:D132)</f>
+        <v>69.37</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A135" s="52" t="s">
+        <v>840</v>
+      </c>
+      <c r="D135" s="55"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A136" s="52" t="s">
+        <v>841</v>
+      </c>
+      <c r="D136" s="55">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A137" s="52" t="s">
+        <v>842</v>
+      </c>
+      <c r="D137" s="55">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A139" s="52" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A140" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B140" s="16">
+        <v>100.8</v>
+      </c>
+      <c r="C140" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D140" s="49">
+        <v>116.93</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A141" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B141" s="16">
+        <v>51.63</v>
+      </c>
+      <c r="C141" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="D141" s="49">
+        <v>41.82</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A142" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C142" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="D142" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A145" s="52" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A146" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B146" s="16">
+        <v>99.7</v>
+      </c>
+      <c r="C146" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146" s="49">
+        <v>115.65</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A147" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B147" s="16">
+        <v>62.52</v>
+      </c>
+      <c r="C147" s="49"/>
+      <c r="D147" s="49">
+        <v>50.64</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A148" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C148" s="49"/>
+      <c r="D148" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A150" s="52" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A151" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B151" s="16">
+        <v>369.2</v>
+      </c>
+      <c r="C151" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" s="49">
+        <v>428.27</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A152" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B152" s="16">
+        <v>15.72</v>
+      </c>
+      <c r="C152" s="49" t="s">
+        <v>849</v>
+      </c>
+      <c r="D152" s="49">
+        <v>19.18</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A153" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B153" s="16">
+        <v>76.12</v>
+      </c>
+      <c r="C153" s="49"/>
+      <c r="D153" s="49">
+        <v>61.66</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A154" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C154" s="49"/>
+      <c r="D154" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A156" s="52" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A157" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B157" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="C157" s="49" t="s">
+        <v>851</v>
+      </c>
+      <c r="D157" s="49">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A158" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B158" s="16">
+        <v>93.78</v>
+      </c>
+      <c r="C158" s="49"/>
+      <c r="D158" s="49">
+        <v>75.959999999999994</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A159" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B159" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C159" s="49"/>
+      <c r="D159" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>845</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Supplementary_Table_S7_Unit_Cost_Parameters_in_Included_Studies_2023USD.xlsx
+++ b/Supplementary_Table_S7_Unit_Cost_Parameters_in_Included_Studies_2023USD.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\2025\TB\Manuscripts\Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF552F45-265C-46D5-B472-1B02DD7CC2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FF49CB-3FAF-4078-A2D2-F3AC56561B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{736FAEE4-C1AE-485A-9314-78685299701E}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" activeTab="1" xr2:uid="{736FAEE4-C1AE-485A-9314-78685299701E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cost" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cost!$E$218:$F$242</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$218:$F$242</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="853">
   <si>
     <t>No.</t>
   </si>
@@ -2929,6 +2929,10 @@
   </si>
   <si>
     <t>2.7-8.10</t>
+  </si>
+  <si>
+    <t>134.67–186.68</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3206,12 +3210,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3228,7 +3226,6 @@
     <xf numFmtId="178" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3238,6 +3235,13 @@
     <xf numFmtId="179" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3557,7 +3561,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A651" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E1"/>
+      <selection pane="bottomLeft" activeCell="C667" sqref="C667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3602,13 +3606,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="59" t="s">
         <v>779</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -35847,8 +35851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9538B8-E27B-4859-B2D6-7B1F12DBC881}">
   <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B133" workbookViewId="0">
+      <selection activeCell="D151" sqref="D151:D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -35862,58 +35866,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>780</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="56" t="s">
         <v>781</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="56" t="s">
         <v>782</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="56" t="s">
         <v>783</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="56" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="61" t="s">
         <v>785</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="54">
         <v>23.5</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="55">
         <v>27.26</v>
       </c>
     </row>
@@ -35921,11 +35925,11 @@
       <c r="A7" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="B7" s="56">
+      <c r="B7" s="54">
         <v>2.4</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="57">
+      <c r="D7" s="55">
         <v>2.4</v>
       </c>
     </row>
@@ -35933,11 +35937,11 @@
       <c r="A8" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="54">
         <v>11</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="57">
+      <c r="D8" s="55">
         <v>11.33</v>
       </c>
     </row>
@@ -35945,11 +35949,11 @@
       <c r="A9" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="54">
         <v>5.8</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="57">
+      <c r="D9" s="55">
         <v>8.24</v>
       </c>
     </row>
@@ -35957,11 +35961,11 @@
       <c r="A10" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="54">
         <v>22</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="57">
+      <c r="D10" s="55">
         <v>3.74</v>
       </c>
     </row>
@@ -35969,11 +35973,11 @@
       <c r="A11" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="54">
         <v>200</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="57">
+      <c r="D11" s="55">
         <v>250</v>
       </c>
     </row>
@@ -35981,11 +35985,11 @@
       <c r="A12" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="B12" s="56">
+      <c r="B12" s="54">
         <v>11</v>
       </c>
       <c r="C12" s="16"/>
-      <c r="D12" s="57">
+      <c r="D12" s="55">
         <v>11.33</v>
       </c>
     </row>
@@ -35993,11 +35997,11 @@
       <c r="A13" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="54">
         <v>0.55000000000000004</v>
       </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="57">
+      <c r="D13" s="55">
         <v>0.71</v>
       </c>
     </row>
@@ -36005,11 +36009,11 @@
       <c r="A14" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="B14" s="56">
+      <c r="B14" s="54">
         <v>116.07</v>
       </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="57">
+      <c r="D14" s="55">
         <v>94.02</v>
       </c>
     </row>
@@ -36017,11 +36021,11 @@
       <c r="A15" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="B15" s="56">
+      <c r="B15" s="54">
         <v>11</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="57">
+      <c r="D15" s="55">
         <v>11.33</v>
       </c>
     </row>
@@ -36029,11 +36033,11 @@
       <c r="A16" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="54">
         <v>2.37</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="57">
+      <c r="D16" s="55">
         <v>3.18</v>
       </c>
     </row>
@@ -36041,11 +36045,11 @@
       <c r="A17" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="B17" s="56">
+      <c r="B17" s="54">
         <v>1.22</v>
       </c>
       <c r="C17" s="16"/>
-      <c r="D17" s="57">
+      <c r="D17" s="55">
         <v>2.12</v>
       </c>
     </row>
@@ -36053,11 +36057,11 @@
       <c r="A18" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="B18" s="56">
+      <c r="B18" s="54">
         <v>15.42</v>
       </c>
       <c r="C18" s="16"/>
-      <c r="D18" s="57">
+      <c r="D18" s="55">
         <v>20.350000000000001</v>
       </c>
     </row>
@@ -36065,11 +36069,11 @@
       <c r="A19" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="B19" s="56">
+      <c r="B19" s="54">
         <v>11.78</v>
       </c>
       <c r="C19" s="16"/>
-      <c r="D19" s="57">
+      <c r="D19" s="55">
         <v>14.96</v>
       </c>
     </row>
@@ -36077,11 +36081,11 @@
       <c r="A20" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="B20" s="56">
+      <c r="B20" s="54">
         <v>11.78</v>
       </c>
       <c r="C20" s="16"/>
-      <c r="D20" s="57">
+      <c r="D20" s="55">
         <v>18.260000000000002</v>
       </c>
     </row>
@@ -36089,13 +36093,13 @@
       <c r="A21" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="B21" s="56">
+      <c r="B21" s="54">
         <v>4.5</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="55">
         <v>5.94</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -36106,11 +36110,11 @@
       <c r="A22" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="B22" s="56">
+      <c r="B22" s="54">
         <v>24</v>
       </c>
       <c r="C22" s="16"/>
-      <c r="D22" s="57">
+      <c r="D22" s="55">
         <v>31.68</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -36121,11 +36125,11 @@
       <c r="A23" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="B23" s="56">
+      <c r="B23" s="54">
         <v>0.9</v>
       </c>
       <c r="C23" s="16"/>
-      <c r="D23" s="57">
+      <c r="D23" s="55">
         <v>1.44</v>
       </c>
     </row>
@@ -36133,11 +36137,11 @@
       <c r="A24" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="B24" s="56">
+      <c r="B24" s="54">
         <v>5.3</v>
       </c>
       <c r="C24" s="16"/>
-      <c r="D24" s="57">
+      <c r="D24" s="55">
         <v>8.48</v>
       </c>
     </row>
@@ -36145,13 +36149,13 @@
       <c r="A25" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="B25" s="56">
+      <c r="B25" s="54">
         <v>7.07</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>807</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="55">
         <v>10.46</v>
       </c>
     </row>
@@ -36159,13 +36163,13 @@
       <c r="A26" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="B26" s="56">
+      <c r="B26" s="54">
         <v>15.4</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>809</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="55">
         <v>20.329999999999998</v>
       </c>
     </row>
@@ -36173,13 +36177,13 @@
       <c r="A27" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="B27" s="56">
+      <c r="B27" s="54">
         <v>7.87</v>
       </c>
       <c r="C27" s="48" t="s">
         <v>596</v>
       </c>
-      <c r="D27" s="57">
+      <c r="D27" s="55">
         <v>9.92</v>
       </c>
     </row>
@@ -36187,11 +36191,11 @@
       <c r="A28" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="B28" s="56">
+      <c r="B28" s="54">
         <v>34.22</v>
       </c>
       <c r="C28" s="16"/>
-      <c r="D28" s="57">
+      <c r="D28" s="55">
         <v>67.760000000000005</v>
       </c>
     </row>
@@ -36199,13 +36203,13 @@
       <c r="A29" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="B29" s="56">
+      <c r="B29" s="54">
         <v>15.43</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>813</v>
       </c>
-      <c r="D29" s="57">
+      <c r="D29" s="55">
         <v>26.08</v>
       </c>
     </row>
@@ -36213,11 +36217,11 @@
       <c r="A30" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="B30" s="56">
+      <c r="B30" s="54">
         <v>13.69</v>
       </c>
       <c r="C30" s="16"/>
-      <c r="D30" s="57">
+      <c r="D30" s="55">
         <v>28.89</v>
       </c>
     </row>
@@ -36225,58 +36229,58 @@
       <c r="A31" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="B31" s="56">
+      <c r="B31" s="54">
         <v>6</v>
       </c>
       <c r="C31" s="16"/>
-      <c r="D31" s="57">
+      <c r="D31" s="55">
         <v>8.52</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="50" t="s">
         <v>816</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="51">
         <f>AVERAGE(D6:D31)</f>
         <v>26.87423076923077</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="50" t="s">
         <v>817</v>
       </c>
-      <c r="D33" s="53">
+      <c r="D33" s="51">
         <f>MEDIAN(D6:D31)</f>
         <v>11.33</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="50" t="s">
         <v>818</v>
       </c>
-      <c r="D34" s="53"/>
+      <c r="D34" s="51"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="52" t="s">
         <v>819</v>
       </c>
-      <c r="D35" s="53">
+      <c r="D35" s="51">
         <f>MIN(D6:D31)</f>
         <v>0.71</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="52" t="s">
         <v>820</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="51">
         <f>MAX(D6:D31)</f>
         <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="50" t="s">
         <v>821</v>
       </c>
     </row>
@@ -36284,13 +36288,13 @@
       <c r="A39" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="B39" s="60">
+      <c r="B39" s="57">
         <v>20.5</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="61">
+      <c r="D39" s="58">
         <v>23.78</v>
       </c>
     </row>
@@ -36298,11 +36302,11 @@
       <c r="A40" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="B40" s="60">
+      <c r="B40" s="57">
         <v>20.39</v>
       </c>
       <c r="C40" s="16"/>
-      <c r="D40" s="61">
+      <c r="D40" s="58">
         <v>20.39</v>
       </c>
     </row>
@@ -36310,13 +36314,13 @@
       <c r="A41" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="B41" s="60">
+      <c r="B41" s="57">
         <v>54</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="61">
+      <c r="D41" s="58">
         <v>55.62</v>
       </c>
     </row>
@@ -36324,11 +36328,11 @@
       <c r="A42" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="B42" s="60">
+      <c r="B42" s="57">
         <v>573</v>
       </c>
       <c r="C42" s="16"/>
-      <c r="D42" s="61">
+      <c r="D42" s="58">
         <v>80.22</v>
       </c>
     </row>
@@ -36336,11 +36340,11 @@
       <c r="A43" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="B43" s="60">
+      <c r="B43" s="57">
         <v>52.25</v>
       </c>
       <c r="C43" s="16"/>
-      <c r="D43" s="61">
+      <c r="D43" s="58">
         <v>74.2</v>
       </c>
     </row>
@@ -36348,11 +36352,11 @@
       <c r="A44" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="B44" s="60">
+      <c r="B44" s="57">
         <v>49</v>
       </c>
       <c r="C44" s="16"/>
-      <c r="D44" s="61">
+      <c r="D44" s="58">
         <v>8.33</v>
       </c>
     </row>
@@ -36360,13 +36364,13 @@
       <c r="A45" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="B45" s="60">
+      <c r="B45" s="57">
         <v>54</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="61">
+      <c r="D45" s="58">
         <v>55.62</v>
       </c>
     </row>
@@ -36374,11 +36378,11 @@
       <c r="A46" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="B46" s="60">
+      <c r="B46" s="57">
         <v>113.48</v>
       </c>
       <c r="C46" s="16"/>
-      <c r="D46" s="61">
+      <c r="D46" s="58">
         <v>91.92</v>
       </c>
     </row>
@@ -36386,13 +36390,13 @@
       <c r="A47" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="B47" s="60">
+      <c r="B47" s="57">
         <v>54</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="61">
+      <c r="D47" s="58">
         <v>55.62</v>
       </c>
     </row>
@@ -36400,11 +36404,11 @@
       <c r="A48" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="B48" s="60">
+      <c r="B48" s="57">
         <v>58.8</v>
       </c>
       <c r="C48" s="16"/>
-      <c r="D48" s="61">
+      <c r="D48" s="58">
         <v>94.08</v>
       </c>
       <c r="E48" s="4" t="s">
@@ -36415,11 +36419,11 @@
       <c r="A49" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="B49" s="60">
+      <c r="B49" s="57">
         <v>52.5</v>
       </c>
       <c r="C49" s="16"/>
-      <c r="D49" s="61">
+      <c r="D49" s="58">
         <v>84</v>
       </c>
       <c r="E49" s="4" t="s">
@@ -36430,13 +36434,13 @@
       <c r="A50" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="B50" s="60">
+      <c r="B50" s="57">
         <v>51.77</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="D50" s="61">
+      <c r="D50" s="58">
         <v>69.37</v>
       </c>
     </row>
@@ -36444,11 +36448,11 @@
       <c r="A51" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="B51" s="60">
+      <c r="B51" s="57">
         <v>112</v>
       </c>
       <c r="C51" s="16"/>
-      <c r="D51" s="61">
+      <c r="D51" s="58">
         <v>194.88</v>
       </c>
     </row>
@@ -36456,13 +36460,13 @@
       <c r="A52" s="4" t="s">
         <v>825</v>
       </c>
-      <c r="B52" s="60">
+      <c r="B52" s="57">
         <v>47.03</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="D52" s="61">
+      <c r="D52" s="58">
         <v>68.66</v>
       </c>
     </row>
@@ -36470,13 +36474,13 @@
       <c r="A53" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="B53" s="60">
+      <c r="B53" s="57">
         <v>84.35</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="D53" s="61">
+      <c r="D53" s="58">
         <v>106.28</v>
       </c>
     </row>
@@ -36484,11 +36488,11 @@
       <c r="A54" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="B54" s="60">
+      <c r="B54" s="57">
         <v>25.67</v>
       </c>
       <c r="C54" s="16"/>
-      <c r="D54" s="61">
+      <c r="D54" s="58">
         <v>54.16</v>
       </c>
     </row>
@@ -36496,58 +36500,58 @@
       <c r="A55" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="B55" s="60">
+      <c r="B55" s="57">
         <v>64</v>
       </c>
       <c r="C55" s="16"/>
-      <c r="D55" s="61">
+      <c r="D55" s="58">
         <v>90.88</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="50" t="s">
         <v>816</v>
       </c>
-      <c r="D56" s="55">
+      <c r="D56" s="53">
         <f>AVERAGE(D39:D55)</f>
         <v>72.235882352941189</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="50" t="s">
         <v>817</v>
       </c>
-      <c r="D57" s="55">
+      <c r="D57" s="53">
         <f>MEDIAN(D39:D55)</f>
         <v>69.37</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="50" t="s">
         <v>818</v>
       </c>
-      <c r="D58" s="53"/>
+      <c r="D58" s="51"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="52" t="s">
         <v>819</v>
       </c>
-      <c r="D59" s="53">
+      <c r="D59" s="51">
         <f>MIN(D39:D55)</f>
         <v>8.33</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A60" s="54" t="s">
+      <c r="A60" s="52" t="s">
         <v>820</v>
       </c>
-      <c r="D60" s="53">
+      <c r="D60" s="51">
         <f>MAX(D39:D55)</f>
         <v>194.88</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="50" t="s">
         <v>826</v>
       </c>
     </row>
@@ -36555,13 +36559,13 @@
       <c r="A63" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="B63" s="60">
+      <c r="B63" s="57">
         <v>26</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="61">
+      <c r="D63" s="58">
         <v>30.16</v>
       </c>
     </row>
@@ -36569,11 +36573,11 @@
       <c r="A64" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="B64" s="60">
+      <c r="B64" s="57">
         <v>14.39</v>
       </c>
       <c r="C64" s="16"/>
-      <c r="D64" s="61">
+      <c r="D64" s="58">
         <v>14.39</v>
       </c>
     </row>
@@ -36581,11 +36585,11 @@
       <c r="A65" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="B65" s="60">
+      <c r="B65" s="57">
         <v>35</v>
       </c>
       <c r="C65" s="16"/>
-      <c r="D65" s="61">
+      <c r="D65" s="58">
         <v>36.049999999999997</v>
       </c>
     </row>
@@ -36593,11 +36597,11 @@
       <c r="A66" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="B66" s="60">
+      <c r="B66" s="57">
         <v>1008</v>
       </c>
       <c r="C66" s="16"/>
-      <c r="D66" s="61">
+      <c r="D66" s="58">
         <v>141.12</v>
       </c>
     </row>
@@ -36605,11 +36609,11 @@
       <c r="A67" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="B67" s="60">
+      <c r="B67" s="57">
         <v>17.399999999999999</v>
       </c>
       <c r="C67" s="16"/>
-      <c r="D67" s="61">
+      <c r="D67" s="58">
         <v>24.71</v>
       </c>
     </row>
@@ -36617,11 +36621,11 @@
       <c r="A68" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="B68" s="60">
+      <c r="B68" s="57">
         <v>65</v>
       </c>
       <c r="C68" s="16"/>
-      <c r="D68" s="61">
+      <c r="D68" s="58">
         <v>11.05</v>
       </c>
     </row>
@@ -36629,11 +36633,11 @@
       <c r="A69" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="B69" s="60">
+      <c r="B69" s="57">
         <v>35.82</v>
       </c>
       <c r="C69" s="16"/>
-      <c r="D69" s="61">
+      <c r="D69" s="58">
         <v>46.57</v>
       </c>
     </row>
@@ -36641,11 +36645,11 @@
       <c r="A70" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="B70" s="60">
+      <c r="B70" s="57">
         <v>35</v>
       </c>
       <c r="C70" s="16"/>
-      <c r="D70" s="61">
+      <c r="D70" s="58">
         <v>36.049999999999997</v>
       </c>
     </row>
@@ -36653,11 +36657,11 @@
       <c r="A71" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="B71" s="60">
+      <c r="B71" s="57">
         <v>15.9</v>
       </c>
       <c r="C71" s="16"/>
-      <c r="D71" s="61">
+      <c r="D71" s="58">
         <v>25.44</v>
       </c>
       <c r="E71" s="4" t="s">
@@ -36668,11 +36672,11 @@
       <c r="A72" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="B72" s="60">
+      <c r="B72" s="57">
         <v>16.3</v>
       </c>
       <c r="C72" s="16"/>
-      <c r="D72" s="61">
+      <c r="D72" s="58">
         <v>26.08</v>
       </c>
       <c r="E72" s="4" t="s">
@@ -36683,13 +36687,13 @@
       <c r="A73" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="B73" s="60">
+      <c r="B73" s="57">
         <v>5.8259999999999996</v>
       </c>
       <c r="C73" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="D73" s="61">
+      <c r="D73" s="58">
         <v>6.47</v>
       </c>
     </row>
@@ -36697,11 +36701,11 @@
       <c r="A74" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="B74" s="60">
+      <c r="B74" s="57">
         <v>31.21</v>
       </c>
       <c r="C74" s="16"/>
-      <c r="D74" s="61">
+      <c r="D74" s="58">
         <v>41.2</v>
       </c>
     </row>
@@ -36709,11 +36713,11 @@
       <c r="A75" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="B75" s="60">
+      <c r="B75" s="57">
         <v>39.68</v>
       </c>
       <c r="C75" s="16"/>
-      <c r="D75" s="61">
+      <c r="D75" s="58">
         <v>50.39</v>
       </c>
     </row>
@@ -36721,11 +36725,11 @@
       <c r="A76" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="B76" s="60">
+      <c r="B76" s="57">
         <v>39.68</v>
       </c>
       <c r="C76" s="16"/>
-      <c r="D76" s="61">
+      <c r="D76" s="58">
         <v>61.5</v>
       </c>
     </row>
@@ -36733,13 +36737,13 @@
       <c r="A77" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="B77" s="60">
+      <c r="B77" s="57">
         <v>18.75</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="D77" s="61">
+      <c r="D77" s="58">
         <v>27.75</v>
       </c>
     </row>
@@ -36747,13 +36751,13 @@
       <c r="A78" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="B78" s="60">
+      <c r="B78" s="57">
         <v>36.299999999999997</v>
       </c>
       <c r="C78" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="D78" s="61">
+      <c r="D78" s="58">
         <v>47.92</v>
       </c>
     </row>
@@ -36761,11 +36765,11 @@
       <c r="A79" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="B79" s="60">
+      <c r="B79" s="57">
         <v>28</v>
       </c>
       <c r="C79" s="16"/>
-      <c r="D79" s="61">
+      <c r="D79" s="58">
         <v>55.44</v>
       </c>
     </row>
@@ -36773,11 +36777,11 @@
       <c r="A80" s="4" t="s">
         <v>829</v>
       </c>
-      <c r="B80" s="60">
+      <c r="B80" s="57">
         <v>28</v>
       </c>
       <c r="C80" s="16"/>
-      <c r="D80" s="61">
+      <c r="D80" s="58">
         <v>55.44</v>
       </c>
     </row>
@@ -36785,11 +36789,11 @@
       <c r="A81" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="B81" s="60">
+      <c r="B81" s="57">
         <v>23.24</v>
       </c>
       <c r="C81" s="16"/>
-      <c r="D81" s="61">
+      <c r="D81" s="58">
         <v>49.04</v>
       </c>
     </row>
@@ -36797,11 +36801,11 @@
       <c r="A82" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="B82" s="60">
+      <c r="B82" s="57">
         <v>67</v>
       </c>
       <c r="C82" s="16"/>
-      <c r="D82" s="61">
+      <c r="D82" s="58">
         <v>95.14</v>
       </c>
     </row>
@@ -36809,11 +36813,11 @@
       <c r="A83" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="B83" s="60">
+      <c r="B83" s="57">
         <v>16.73</v>
       </c>
       <c r="C83" s="16"/>
-      <c r="D83" s="61">
+      <c r="D83" s="58">
         <v>26.77</v>
       </c>
     </row>
@@ -36821,58 +36825,58 @@
       <c r="A84" s="4" t="s">
         <v>831</v>
       </c>
-      <c r="B84" s="60">
+      <c r="B84" s="57">
         <v>20</v>
       </c>
       <c r="C84" s="16"/>
-      <c r="D84" s="61">
+      <c r="D84" s="58">
         <v>30.2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" s="52" t="s">
+      <c r="A85" s="50" t="s">
         <v>816</v>
       </c>
-      <c r="D85" s="55">
+      <c r="D85" s="53">
         <f>AVERAGE(D63:D84)</f>
         <v>42.676363636363639</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" s="52" t="s">
+      <c r="A86" s="50" t="s">
         <v>817</v>
       </c>
-      <c r="D86" s="55">
+      <c r="D86" s="53">
         <f>MEDIAN(D63:D84)</f>
         <v>36.049999999999997</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" s="52" t="s">
+      <c r="A87" s="50" t="s">
         <v>818</v>
       </c>
-      <c r="D87" s="55"/>
+      <c r="D87" s="53"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" s="54" t="s">
+      <c r="A88" s="52" t="s">
         <v>819</v>
       </c>
-      <c r="D88" s="55">
+      <c r="D88" s="53">
         <f>MIN(D63:D84)</f>
         <v>6.47</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" s="54" t="s">
+      <c r="A89" s="52" t="s">
         <v>820</v>
       </c>
-      <c r="D89" s="55">
+      <c r="D89" s="53">
         <f>MAX(D63:D84)</f>
         <v>141.12</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" s="52" t="s">
+      <c r="A91" s="50" t="s">
         <v>832</v>
       </c>
     </row>
@@ -36880,13 +36884,13 @@
       <c r="A92" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="B92" s="60">
+      <c r="B92" s="57">
         <v>1.3</v>
       </c>
       <c r="C92" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D92" s="61">
+      <c r="D92" s="58">
         <v>1.51</v>
       </c>
     </row>
@@ -36894,11 +36898,11 @@
       <c r="A93" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="B93" s="60">
+      <c r="B93" s="57">
         <v>0.32</v>
       </c>
       <c r="C93" s="49"/>
-      <c r="D93" s="61">
+      <c r="D93" s="58">
         <v>0.32</v>
       </c>
     </row>
@@ -36906,11 +36910,11 @@
       <c r="A94" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="B94" s="60">
+      <c r="B94" s="57">
         <v>1.82</v>
       </c>
       <c r="C94" s="49"/>
-      <c r="D94" s="61">
+      <c r="D94" s="58">
         <v>2.37</v>
       </c>
     </row>
@@ -36918,11 +36922,11 @@
       <c r="A95" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="B95" s="60">
+      <c r="B95" s="57">
         <v>9.99</v>
       </c>
       <c r="C95" s="49"/>
-      <c r="D95" s="61">
+      <c r="D95" s="58">
         <v>12.99</v>
       </c>
     </row>
@@ -36930,11 +36934,11 @@
       <c r="A96" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="B96" s="60">
+      <c r="B96" s="57">
         <v>7.5</v>
       </c>
       <c r="C96" s="49"/>
-      <c r="D96" s="61">
+      <c r="D96" s="58">
         <v>9.5299999999999994</v>
       </c>
     </row>
@@ -36942,58 +36946,58 @@
       <c r="A97" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="B97" s="60">
+      <c r="B97" s="57">
         <v>7.5</v>
       </c>
       <c r="C97" s="49"/>
-      <c r="D97" s="61">
+      <c r="D97" s="58">
         <v>11.63</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A98" s="52" t="s">
+      <c r="A98" s="50" t="s">
         <v>816</v>
       </c>
-      <c r="D98" s="55">
+      <c r="D98" s="53">
         <f>AVERAGE(D92:D97)</f>
         <v>6.3916666666666666</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A99" s="52" t="s">
+      <c r="A99" s="50" t="s">
         <v>817</v>
       </c>
-      <c r="D99" s="55">
+      <c r="D99" s="53">
         <f>MEDIAN(D92:D97)</f>
         <v>5.9499999999999993</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A100" s="52" t="s">
+      <c r="A100" s="50" t="s">
         <v>818</v>
       </c>
-      <c r="D100" s="55"/>
+      <c r="D100" s="53"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A101" s="54" t="s">
+      <c r="A101" s="52" t="s">
         <v>819</v>
       </c>
-      <c r="D101" s="55">
+      <c r="D101" s="53">
         <f>MIN(D92:D97)</f>
         <v>0.32</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A102" s="54" t="s">
+      <c r="A102" s="52" t="s">
         <v>820</v>
       </c>
-      <c r="D102" s="55">
+      <c r="D102" s="53">
         <f>MAX(D92:D97)</f>
         <v>12.99</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A104" s="52" t="s">
+      <c r="A104" s="50" t="s">
         <v>833</v>
       </c>
     </row>
@@ -37001,13 +37005,13 @@
       <c r="A105" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="B105" s="60">
+      <c r="B105" s="57">
         <v>8.6999999999999993</v>
       </c>
       <c r="C105" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D105" s="61">
+      <c r="D105" s="58">
         <v>10.09</v>
       </c>
     </row>
@@ -37015,11 +37019,11 @@
       <c r="A106" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="B106" s="60">
+      <c r="B106" s="57">
         <v>6.7</v>
       </c>
       <c r="C106" s="49"/>
-      <c r="D106" s="61">
+      <c r="D106" s="58">
         <v>6.7</v>
       </c>
     </row>
@@ -37027,11 +37031,11 @@
       <c r="A107" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="B107" s="60">
+      <c r="B107" s="57">
         <v>10.91</v>
       </c>
       <c r="C107" s="49"/>
-      <c r="D107" s="61">
+      <c r="D107" s="58">
         <v>14.19</v>
       </c>
     </row>
@@ -37039,11 +37043,11 @@
       <c r="A108" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="B108" s="60">
+      <c r="B108" s="57">
         <v>20.07</v>
       </c>
       <c r="C108" s="49"/>
-      <c r="D108" s="61">
+      <c r="D108" s="58">
         <v>26.09</v>
       </c>
     </row>
@@ -37051,58 +37055,58 @@
       <c r="A109" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="B109" s="60">
+      <c r="B109" s="57">
         <v>21.39</v>
       </c>
       <c r="C109" s="49"/>
-      <c r="D109" s="61">
+      <c r="D109" s="58">
         <v>28.66</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A110" s="52" t="s">
+      <c r="A110" s="50" t="s">
         <v>816</v>
       </c>
-      <c r="D110" s="55">
+      <c r="D110" s="53">
         <f>AVERAGE(D105:D109)</f>
         <v>17.145999999999997</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" s="52" t="s">
+      <c r="A111" s="50" t="s">
         <v>817</v>
       </c>
-      <c r="D111" s="55">
+      <c r="D111" s="53">
         <f>MEDIAN(D105:D109)</f>
         <v>14.19</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A112" s="52" t="s">
+      <c r="A112" s="50" t="s">
         <v>818</v>
       </c>
-      <c r="D112" s="55"/>
+      <c r="D112" s="53"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A113" s="54" t="s">
+      <c r="A113" s="52" t="s">
         <v>819</v>
       </c>
-      <c r="D113" s="55">
+      <c r="D113" s="53">
         <f>MIN(D105:D109)</f>
         <v>6.7</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A114" s="54" t="s">
+      <c r="A114" s="52" t="s">
         <v>820</v>
       </c>
-      <c r="D114" s="55">
+      <c r="D114" s="53">
         <f>MAX(D105:D109)</f>
         <v>28.66</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A116" s="52" t="s">
+      <c r="A116" s="50" t="s">
         <v>834</v>
       </c>
     </row>
@@ -37110,13 +37114,13 @@
       <c r="A117" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="B117" s="60">
+      <c r="B117" s="57">
         <v>24.62</v>
       </c>
       <c r="C117" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="D117" s="61">
+      <c r="D117" s="58">
         <v>27.33</v>
       </c>
     </row>
@@ -37124,11 +37128,11 @@
       <c r="A118" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="B118" s="60">
+      <c r="B118" s="57">
         <v>14.42</v>
       </c>
       <c r="C118" s="49"/>
-      <c r="D118" s="61">
+      <c r="D118" s="58">
         <v>18.309999999999999</v>
       </c>
     </row>
@@ -37136,11 +37140,11 @@
       <c r="A119" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="B119" s="60">
+      <c r="B119" s="57">
         <v>14.42</v>
       </c>
       <c r="C119" s="49"/>
-      <c r="D119" s="61">
+      <c r="D119" s="58">
         <v>22.35</v>
       </c>
     </row>
@@ -37148,13 +37152,13 @@
       <c r="A120" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="B120" s="60">
+      <c r="B120" s="57">
         <v>69.900000000000006</v>
       </c>
       <c r="C120" s="49" t="s">
         <v>579</v>
       </c>
-      <c r="D120" s="61">
+      <c r="D120" s="58">
         <v>92.27</v>
       </c>
     </row>
@@ -37162,11 +37166,11 @@
       <c r="A121" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="B121" s="60">
+      <c r="B121" s="57">
         <v>10</v>
       </c>
       <c r="C121" s="49"/>
-      <c r="D121" s="61">
+      <c r="D121" s="58">
         <v>19.8</v>
       </c>
     </row>
@@ -37174,59 +37178,59 @@
       <c r="A122" s="4" t="s">
         <v>829</v>
       </c>
-      <c r="B122" s="60">
+      <c r="B122" s="57">
         <v>10</v>
       </c>
       <c r="C122" s="49"/>
-      <c r="D122" s="61">
+      <c r="D122" s="58">
         <v>19.8</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A123" s="52" t="s">
+      <c r="A123" s="50" t="s">
         <v>816</v>
       </c>
-      <c r="D123" s="55">
+      <c r="D123" s="53">
         <f>AVERAGE(D117:D122)</f>
         <v>33.31</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A124" s="52" t="s">
+      <c r="A124" s="50" t="s">
         <v>817</v>
       </c>
-      <c r="D124" s="55">
+      <c r="D124" s="53">
         <f>MEDIAN(D117:D122)</f>
         <v>21.075000000000003</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A125" s="52" t="s">
+      <c r="A125" s="50" t="s">
         <v>818</v>
       </c>
-      <c r="D125" s="55"/>
+      <c r="D125" s="53"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A126" s="54" t="s">
+      <c r="A126" s="52" t="s">
         <v>819</v>
       </c>
-      <c r="C126" s="55"/>
-      <c r="D126" s="55">
+      <c r="C126" s="53"/>
+      <c r="D126" s="53">
         <f>MIN(D117:D122)</f>
         <v>18.309999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A127" s="54" t="s">
+      <c r="A127" s="52" t="s">
         <v>820</v>
       </c>
-      <c r="D127" s="55">
+      <c r="D127" s="53">
         <f>MAX(D117:D122)</f>
         <v>92.27</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A129" s="52" t="s">
+      <c r="A129" s="50" t="s">
         <v>835</v>
       </c>
     </row>
@@ -37234,13 +37238,13 @@
       <c r="A130" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="B130" s="60">
+      <c r="B130" s="57">
         <v>59.8</v>
       </c>
       <c r="C130" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D130" s="61">
+      <c r="D130" s="58">
         <v>69.37</v>
       </c>
       <c r="E130" s="4" t="s">
@@ -37251,11 +37255,11 @@
       <c r="A131" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="B131" s="60">
+      <c r="B131" s="57">
         <v>9.98</v>
       </c>
       <c r="C131" s="49"/>
-      <c r="D131" s="61">
+      <c r="D131" s="58">
         <v>9.98</v>
       </c>
       <c r="E131" s="4" t="s">
@@ -37266,11 +37270,11 @@
       <c r="A132" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="B132" s="60">
+      <c r="B132" s="57">
         <v>58.91</v>
       </c>
       <c r="C132" s="49"/>
-      <c r="D132" s="61">
+      <c r="D132" s="58">
         <v>91.9</v>
       </c>
       <c r="E132" s="4" t="s">
@@ -37278,47 +37282,47 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A133" s="52" t="s">
+      <c r="A133" s="50" t="s">
         <v>838</v>
       </c>
-      <c r="D133" s="55">
+      <c r="D133" s="53">
         <f>AVERAGE(D130:D132)</f>
         <v>57.083333333333336</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A134" s="52" t="s">
+      <c r="A134" s="50" t="s">
         <v>839</v>
       </c>
-      <c r="D134" s="55">
+      <c r="D134" s="53">
         <f>MEDIAN(D130:D132)</f>
         <v>69.37</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A135" s="52" t="s">
+      <c r="A135" s="50" t="s">
         <v>840</v>
       </c>
-      <c r="D135" s="55"/>
+      <c r="D135" s="53"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A136" s="52" t="s">
+      <c r="A136" s="50" t="s">
         <v>841</v>
       </c>
-      <c r="D136" s="55">
+      <c r="D136" s="53">
         <v>9.98</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A137" s="52" t="s">
+      <c r="A137" s="50" t="s">
         <v>842</v>
       </c>
-      <c r="D137" s="55">
+      <c r="D137" s="53">
         <v>91.9</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A139" s="52" t="s">
+      <c r="A139" s="50" t="s">
         <v>843</v>
       </c>
     </row>
@@ -37326,13 +37330,13 @@
       <c r="A140" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="B140" s="16">
+      <c r="B140" s="54">
         <v>100.8</v>
       </c>
       <c r="C140" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D140" s="49">
+      <c r="D140" s="55">
         <v>116.93</v>
       </c>
     </row>
@@ -37340,13 +37344,13 @@
       <c r="A141" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="B141" s="16">
+      <c r="B141" s="54">
         <v>51.63</v>
       </c>
       <c r="C141" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="D141" s="49">
+      <c r="D141" s="55">
         <v>41.82</v>
       </c>
       <c r="E141" s="4" t="s">
@@ -37357,35 +37361,45 @@
       <c r="A142" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="B142" s="16" t="s">
-        <v>270</v>
+      <c r="B142" s="54" t="s">
+        <v>852</v>
       </c>
       <c r="C142" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="D142" s="49" t="s">
+      <c r="D142" s="55" t="s">
         <v>272</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>845</v>
       </c>
     </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B143" s="51"/>
+      <c r="D143" s="51"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B144" s="51"/>
+      <c r="D144" s="51"/>
+    </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A145" s="52" t="s">
+      <c r="A145" s="50" t="s">
         <v>846</v>
       </c>
+      <c r="B145" s="51"/>
+      <c r="D145" s="51"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="B146" s="16">
+      <c r="B146" s="54">
         <v>99.7</v>
       </c>
       <c r="C146" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D146" s="49">
+      <c r="D146" s="55">
         <v>115.65</v>
       </c>
     </row>
@@ -37393,11 +37407,11 @@
       <c r="A147" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="B147" s="16">
+      <c r="B147" s="54">
         <v>62.52</v>
       </c>
       <c r="C147" s="49"/>
-      <c r="D147" s="49">
+      <c r="D147" s="55">
         <v>50.64</v>
       </c>
       <c r="E147" s="4" t="s">
@@ -37408,33 +37422,39 @@
       <c r="A148" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="B148" s="54" t="s">
         <v>274</v>
       </c>
       <c r="C148" s="49"/>
-      <c r="D148" s="49" t="s">
+      <c r="D148" s="55" t="s">
         <v>275</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>845</v>
       </c>
     </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B149" s="51"/>
+      <c r="D149" s="51"/>
+    </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A150" s="52" t="s">
+      <c r="A150" s="50" t="s">
         <v>847</v>
       </c>
+      <c r="B150" s="51"/>
+      <c r="D150" s="51"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="B151" s="16">
+      <c r="B151" s="54">
         <v>369.2</v>
       </c>
       <c r="C151" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D151" s="49">
+      <c r="D151" s="55">
         <v>428.27</v>
       </c>
       <c r="E151" s="4" t="s">
@@ -37445,13 +37465,13 @@
       <c r="A152" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="B152" s="16">
+      <c r="B152" s="54">
         <v>15.72</v>
       </c>
       <c r="C152" s="49" t="s">
         <v>849</v>
       </c>
-      <c r="D152" s="49">
+      <c r="D152" s="55">
         <v>19.18</v>
       </c>
       <c r="E152" s="4" t="s">
@@ -37462,11 +37482,11 @@
       <c r="A153" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="B153" s="16">
+      <c r="B153" s="54">
         <v>76.12</v>
       </c>
       <c r="C153" s="49"/>
-      <c r="D153" s="49">
+      <c r="D153" s="55">
         <v>61.66</v>
       </c>
       <c r="E153" s="4" t="s">
@@ -37477,33 +37497,39 @@
       <c r="A154" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="B154" s="16" t="s">
+      <c r="B154" s="54" t="s">
         <v>264</v>
       </c>
       <c r="C154" s="49"/>
-      <c r="D154" s="49" t="s">
+      <c r="D154" s="55" t="s">
         <v>265</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>845</v>
       </c>
     </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B155" s="51"/>
+      <c r="D155" s="51"/>
+    </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A156" s="52" t="s">
+      <c r="A156" s="50" t="s">
         <v>850</v>
       </c>
+      <c r="B156" s="51"/>
+      <c r="D156" s="51"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="B157" s="16">
+      <c r="B157" s="54">
         <v>5.4</v>
       </c>
       <c r="C157" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="D157" s="49">
+      <c r="D157" s="55">
         <v>6.59</v>
       </c>
     </row>
@@ -37511,11 +37537,11 @@
       <c r="A158" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="B158" s="16">
+      <c r="B158" s="54">
         <v>93.78</v>
       </c>
       <c r="C158" s="49"/>
-      <c r="D158" s="49">
+      <c r="D158" s="55">
         <v>75.959999999999994</v>
       </c>
       <c r="E158" s="4" t="s">
@@ -37526,11 +37552,11 @@
       <c r="A159" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="B159" s="16" t="s">
+      <c r="B159" s="54" t="s">
         <v>277</v>
       </c>
       <c r="C159" s="49"/>
-      <c r="D159" s="49" t="s">
+      <c r="D159" s="55" t="s">
         <v>278</v>
       </c>
       <c r="E159" s="4" t="s">
